--- a/User/Protocol/端口及协议自定义配置V1.9.xlsx
+++ b/User/Protocol/端口及协议自定义配置V1.9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -39,14 +39,14 @@
         {
             "p": 1,
             "e": 1,
-            "n": 9600,
+            "b": 9600,
             "db": 8,
             "sb": 1,
             "pa": 0,
             "dn": 1,
             "da": [
                 {
-                    "dt": 1,
+                    "dt": 2,
                     "p": 0,
                     "dn": 1,
                     "da": 1
@@ -56,24 +56,7 @@
         {
             "p": 2,
             "e": 1,
-            "n": 9600,
-            "db": 8,
-            "sb": 1,
-            "pa": 0,
-            "dn": 1,
-            "da": [
-                {
-                    "dt": 1,
-                    "p": 0,
-                    "dn": 1,
-                    "da": 1
-                }
-            ]
-        },
-        {
-            "p": 3,
-            "e": 1,
-            "n": 9600,
+            "b": 9600,
             "db": 8,
             "sb": 1,
             "pa": 0,
@@ -92,12 +75,12 @@
         {
             "p": 1,
             "e": 1,
-            "b": 500000,
+            "b": 250000,
             "dn": 1,
             "da": [
                 {
-                    "dt": 1,
-                    "p": 1,
+                    "dt": 3,
+                    "p": 2,
                     "dn": 1,
                     "ma": 1,
                     "sa": 1,
@@ -108,37 +91,110 @@
         {
             "p": 2,
             "e": 1,
-            "b": 500000,
+            "b": 250000,
             "dn": 1,
             "da": [
                 {
-                    "dt": 1,
+                    "dt": 0,
                     "p": 1,
                     "dn": 1,
                     "ma": 1,
                     "sa": 1,
-                    "af": 0
+                    "af": 1
                 }
             ]
+        }
+    ],
+    "DI": [
+        {
+            "p": 1,
+            "e": 1,
+            "s": 0,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
+        },
+        {
+            "p": 2,
+            "e": 1,
+            "s": 1,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
         },
         {
             "p": 3,
             "e": 1,
-            "b": 500000,
-            "dn": 1,
-            "da": [
-                {
-                    "dt": 1,
-                    "p": 1,
-                    "dn": 1,
-                    "ma": 1,
-                    "sa": 1,
-                    "af": 0
-                }
-            ]
+            "s": 2,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
+        },
+        {
+            "p": 4,
+            "e": 1,
+            "s": 3,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
+        },
+        {
+            "p": 5,
+            "e": 1,
+            "s4": 4,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
+        },
+        {
+            "p": 6,
+            "e": 1,
+            "s": 5,
+            "v": 0,
+            "td": 1000,
+            "rd": 1000
         }
     ],
-    "DI": {}
+    "DO": [
+        {
+            "p": 1,
+            "e": 1,
+            "c": 0,
+            "v": 1
+        },
+        {
+            "p": 2,
+            "e": 1,
+            "c": 1,
+            "v": 1
+        },
+        {
+            "p": 3,
+            "e": 1,
+            "c": 2,
+            "v": 1
+        },
+        {
+            "p": 4,
+            "e": 1,
+            "c": 3,
+            "v": 1
+        },
+        {
+            "p": 5,
+            "e": 1,
+            "c": 4,
+            "v": 1
+        }
+    ],
+    "NTC": [
+        {
+            "p": 1,
+            "e": 1,
+            "tp": 0,
+            "tb": 0
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -571,70 +627,64 @@
   <si>
     <t>{
     "protocol": 0,
-    "device_type": 0,
+    "device_type": 2,
     "area": {
-        "area_num": 3,
+        "area_num": 1,
         "area_attr": [
             {
-                "a": 0,
-                "n": 10,
-                "c": 500
-            },
-            {
-                "a": 100,
-                "n": 10,
-                "c": 500
-            },
-            {
-                "a": 200,
-                "n": 10,
-                "c": 500
+                "fc": 3,
+                "a": 97,
+                "n": 3,
+                "c": 2000
             }
         ]
     },
     "node": {
-        "node_num": 2,
+        "node_num": 3,
         "node_attr": [
             {
-                "i": 20,
+                "ni": 0,
+                "mi": 3640,
                 "mt": 0,
-                "dt": 2,
-                "a": 100,
-                "m": 5,
-                "l": 6,
+                "dt": 1,
+                "fc": 3,
+                "a": 97,
+                "m": 0,
+                "l": 0,
                 "f": 1,
-                "o": 1,
+                "o": 0,
                 "e": {
-                    "n": 2,
-                    "a": [
-                        {
-                            "100": 200
-                        },
-                        {
-                            "200": 100
-                        }
-                    ]
+                    "n": 0
                 }
             },
             {
-                "i": 300,
+                "ni": 1,
+                "mi": 3641,
                 "mt": 0,
-                "dt": 2,
-                "a": 200,
-                "m": 5,
-                "l": 6,
+                "dt": 1,
+                "fc": 3,
+                "a": 98,
+                "m": 0,
+                "l": 0,
                 "f": 1,
-                "o": 1,
+                "o": 0,
                 "e": {
-                    "n": 2,
-                    "a": [
-                        {
-                            "100": 200
-                        },
-                        {
-                            "200": 100
-                        }
-                    ]
+                    "n": 0
+                }
+            },
+            {
+                "ni": 2,
+                "mi": 3642,
+                "mt": 0,
+                "dt": 1,
+                "fc": 3,
+                "a": 99,
+                "m": 0,
+                "l": 0,
+                "f": 1,
+                "o": 0,
+                "e": {
+                    "n": 0
                 }
             }
         ]
@@ -664,50 +714,51 @@
     "protocol": 1,
     "device_type": 0,
     "node": {
-        "node_num": 2,
+        "node_num": 3,
         "node_attr": [
             {
-                "i": 1,
-                "mt": 2,
-                "dt": 3,
-                "fi": 4,
-                "fb": 5,
-                "m": 1,
-                "l": 2,
+                "ni": 0,
+                "mi": 14600,
+                "mt": 1,
+                "dt": 4,
+                "fi": 403701760,
+                "fb": 0,
+                "m": 0,
+                "l": 0,
                 "f": 1,
                 "o": 0,
                 "e": {
-                    "n": 2,
-                    "a": [
-                        {
-                            "100": 200
-                        },
-                        {
-                            "200": 111
-                        }
-                    ]
+                    "n": 0
                 }
             },
             {
-                "i": 1,
-                "mt": 2,
-                "dt": 3,
-                "fi": 4,
-                "fb": 5,
-                "m": 1,
-                "l": 2,
+                "ni": 1,
+                "mi": 14601,
+                "mt": 1,
+                "dt": 4,
+                "fi": 403701760,
+                "fb": 2,
+                "m": 0,
+                "l": 0,
                 "f": 1,
                 "o": 0,
                 "e": {
-                    "n": 2,
-                    "a": [
-                        {
-                            "100": 200
-                        },
-                        {
-                            "200": 111
-                        }
-                    ]
+                    "n": 0
+                }
+            },
+            {
+                "ni": 2,
+                "mi": 14602,
+                "mt": 1,
+                "dt": 4,
+                "fi": 403701760,
+                "fb": 4,
+                "m": 0,
+                "l": 0,
+                "f": 1,
+                "o": 0,
+                "e": {
+                    "n": 0
                 }
             }
         ]
@@ -1838,8 +1889,8 @@
   <sheetPr/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N28" sqref="N27:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2915,8 +2966,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3831,8 +3882,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
